--- a/api/zg接口文件03-14(1).xlsx
+++ b/api/zg接口文件03-14(1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranhongmin/DOC/zg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhigang/project/wechar/hstl/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34840" yWindow="440" windowWidth="25960" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1094,10 +1094,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/smsManagerAction/sendRegisterSMSCode.json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>修改密码获取验证码</t>
     <rPh sb="0" eb="1">
       <t>xiu gai</t>
@@ -1502,10 +1498,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sysuserController/updateUserInfo.json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>id,loginName,userName,phoneNo，email,userDesc,headPortrait,nickname,userType,departmentId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2350,6 +2342,14 @@
     <rPh sb="22" eb="23">
       <t>xue xi</t>
     </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/smsManagerAction/sendRegisterSMSCode.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysuserController/updateUserInfo.json</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2505,12 +2505,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2519,6 +2513,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2849,8 +2849,8 @@
   <dimension ref="A1:XFD80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2867,16 +2867,16 @@
   <sheetData>
     <row r="1" spans="1:16384" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -19268,7 +19268,7 @@
       <c r="XFD1" s="3"/>
     </row>
     <row r="2" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -19278,14 +19278,14 @@
         <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -19293,44 +19293,44 @@
         <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -19338,14 +19338,14 @@
         <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -19353,34 +19353,34 @@
         <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16384" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:16384" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>64</v>
@@ -19390,34 +19390,34 @@
       </c>
     </row>
     <row r="10" spans="1:16384" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:16384" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:16384" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -19425,31 +19425,31 @@
         <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -19457,26 +19457,26 @@
         <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:16384" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -19486,11 +19486,11 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -19498,19 +19498,19 @@
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
@@ -19520,7 +19520,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
@@ -19528,11 +19528,11 @@
         <v>89</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -19540,19 +19540,19 @@
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>28</v>
@@ -19562,24 +19562,24 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
@@ -19594,12 +19594,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>41</v>
@@ -19609,106 +19609,106 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="15" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>191</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="14" t="s">
         <v>111</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="15" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>114</v>
-      </c>
       <c r="D28" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="E29" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="E30" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="E31" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
@@ -19723,7 +19723,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -19733,11 +19733,11 @@
         <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
@@ -19745,108 +19745,108 @@
         <v>52</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="15" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>214</v>
-      </c>
       <c r="E36" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>216</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="E38" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>91</v>
@@ -19856,7 +19856,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
@@ -19864,31 +19864,31 @@
         <v>57</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="1" t="s">
         <v>62</v>
       </c>
@@ -19903,7 +19903,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="22" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -19913,11 +19913,11 @@
         <v>90</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
@@ -19925,11 +19925,11 @@
         <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="1" t="s">
         <v>69</v>
       </c>
@@ -19937,34 +19937,34 @@
         <v>70</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>64</v>
@@ -19974,67 +19974,67 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="249" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -20051,27 +20051,27 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="5" customFormat="1" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>64</v>
@@ -20081,154 +20081,154 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
-        <v>151</v>
+      <c r="A57" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22" t="s">
+      <c r="F57" s="19"/>
+      <c r="G57" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H57" s="23"/>
+      <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
+      <c r="A58" s="22"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="23"/>
+      <c r="A59" s="22"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="23"/>
+      <c r="A60" s="22"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="23"/>
+      <c r="A61" s="22"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21"/>
     </row>
     <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="23"/>
+      <c r="A62" s="22"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="21"/>
     </row>
     <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="23"/>
+      <c r="A63" s="23"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="21"/>
     </row>
     <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="23"/>
+      <c r="A64" s="22"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="23"/>
+      <c r="A65" s="22"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="21"/>
     </row>
     <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="23"/>
+      <c r="A66" s="22"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="21"/>
     </row>
     <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="23"/>
+      <c r="A67" s="22"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="21"/>
     </row>
     <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="23"/>
+      <c r="A68" s="22"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="23"/>
+      <c r="A69" s="22"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="21"/>
     </row>
     <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="23"/>
+      <c r="A70" s="23"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="21"/>
     </row>
     <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="23"/>
+      <c r="A71" s="22"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="21"/>
     </row>
     <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="23"/>
+      <c r="A72" s="22"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="21"/>
     </row>
     <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="23"/>
+      <c r="A73" s="22"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="21"/>
     </row>
     <row r="74" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:8" ht="80" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
-        <v>104</v>
+      <c r="A75" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>95</v>
@@ -20244,12 +20244,12 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>97</v>
@@ -20259,12 +20259,12 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>97</v>
@@ -20276,53 +20276,45 @@
     <row r="78" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12"/>
       <c r="B78" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="E78" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F57:F73"/>
-    <mergeCell ref="G57:G73"/>
-    <mergeCell ref="H57:H73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="E57:E73"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A71:A74"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A21"/>
@@ -20333,6 +20325,14 @@
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A22:A32"/>
     <mergeCell ref="A41:A42"/>
+    <mergeCell ref="F57:F73"/>
+    <mergeCell ref="G57:G73"/>
+    <mergeCell ref="H57:H73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="E57:E73"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A71:A74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api/zg接口文件03-14(1).xlsx
+++ b/api/zg接口文件03-14(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2116,10 +2116,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>num,type,departmentId,catId,isHide</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>想要获取题的数量，类型（1业务，2党建）部门编号（0全部）,分类编号，是否隐藏套题（0不隐藏 1隐藏）</t>
     <rPh sb="0" eb="1">
       <t>xiang yao</t>
@@ -2350,6 +2346,10 @@
   </si>
   <si>
     <t>sysuserController/updateUserInfo.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nums,type,workType,departmentId,catId,isHide</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2505,6 +2505,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2513,12 +2519,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2849,8 +2849,8 @@
   <dimension ref="A1:XFD80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -19268,7 +19268,7 @@
       <c r="XFD1" s="3"/>
     </row>
     <row r="2" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -19285,7 +19285,7 @@
       </c>
     </row>
     <row r="3" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -19300,7 +19300,7 @@
       </c>
     </row>
     <row r="4" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -19315,7 +19315,7 @@
       </c>
     </row>
     <row r="5" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>157</v>
       </c>
@@ -19330,7 +19330,7 @@
       </c>
     </row>
     <row r="6" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -19345,7 +19345,7 @@
       </c>
     </row>
     <row r="7" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -19360,7 +19360,7 @@
       </c>
     </row>
     <row r="8" spans="1:16384" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -19375,7 +19375,7 @@
       </c>
     </row>
     <row r="9" spans="1:16384" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="1" t="s">
         <v>153</v>
       </c>
@@ -19390,7 +19390,7 @@
       </c>
     </row>
     <row r="10" spans="1:16384" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="1" t="s">
         <v>154</v>
       </c>
@@ -19402,7 +19402,7 @@
       </c>
     </row>
     <row r="11" spans="1:16384" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="1" t="s">
         <v>168</v>
       </c>
@@ -19417,7 +19417,7 @@
       </c>
     </row>
     <row r="12" spans="1:16384" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -19432,7 +19432,7 @@
       </c>
     </row>
     <row r="13" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -19449,7 +19449,7 @@
       </c>
     </row>
     <row r="14" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -19461,7 +19461,7 @@
       </c>
     </row>
     <row r="15" spans="1:16384" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -19476,7 +19476,7 @@
       </c>
     </row>
     <row r="16" spans="1:16384" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -19490,7 +19490,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -19505,7 +19505,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -19520,7 +19520,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
@@ -19532,7 +19532,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -19547,7 +19547,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
@@ -19562,7 +19562,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -19579,7 +19579,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
@@ -19594,7 +19594,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -19609,7 +19609,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="15" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="13" t="s">
         <v>188</v>
       </c>
@@ -19624,7 +19624,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="13" t="s">
         <v>108</v>
       </c>
@@ -19639,7 +19639,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="1" t="s">
         <v>112</v>
       </c>
@@ -19648,7 +19648,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="15" customFormat="1" ht="181" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="13" t="s">
         <v>112</v>
       </c>
@@ -19663,7 +19663,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="13" t="s">
         <v>193</v>
       </c>
@@ -19678,7 +19678,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="13" t="s">
         <v>197</v>
       </c>
@@ -19693,7 +19693,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="15" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="13" t="s">
         <v>201</v>
       </c>
@@ -19708,7 +19708,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
@@ -19723,7 +19723,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -19737,7 +19737,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
@@ -19749,82 +19749,82 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="15" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="16" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>210</v>
-      </c>
       <c r="D36" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>212</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C37" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="15" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="E39" s="14" t="s">
         <v>224</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="1" t="s">
         <v>53</v>
       </c>
@@ -19832,14 +19832,14 @@
         <v>123</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -19856,7 +19856,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
@@ -19871,7 +19871,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -19888,7 +19888,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="1" t="s">
         <v>62</v>
       </c>
@@ -19903,7 +19903,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -19917,7 +19917,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
@@ -19929,7 +19929,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="1" t="s">
         <v>69</v>
       </c>
@@ -19942,7 +19942,7 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -19959,7 +19959,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="1" t="s">
         <v>151</v>
       </c>
@@ -19974,7 +19974,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="1" t="s">
         <v>171</v>
       </c>
@@ -19989,7 +19989,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="1" t="s">
         <v>156</v>
       </c>
@@ -19997,14 +19997,14 @@
         <v>192</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="249" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="1" t="s">
         <v>163</v>
       </c>
@@ -20019,7 +20019,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="5" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="1" t="s">
         <v>73</v>
       </c>
@@ -20034,7 +20034,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -20051,7 +20051,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="1" t="s">
         <v>80</v>
       </c>
@@ -20066,7 +20066,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" s="5" customFormat="1" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="1" t="s">
         <v>81</v>
       </c>
@@ -20081,7 +20081,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -20093,129 +20093,129 @@
       <c r="D57" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="20" t="s">
+      <c r="F57" s="21"/>
+      <c r="G57" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H57" s="21"/>
+      <c r="H57" s="23"/>
     </row>
     <row r="58" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="21"/>
+      <c r="A58" s="19"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
+      <c r="A59" s="19"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="23"/>
     </row>
     <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
+      <c r="A60" s="19"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23"/>
     </row>
     <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="21"/>
+      <c r="A61" s="19"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
     </row>
     <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
+      <c r="A62" s="19"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="23"/>
     </row>
     <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="23"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21"/>
+      <c r="A63" s="20"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
+      <c r="A64" s="19"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="23"/>
     </row>
     <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
+      <c r="A65" s="19"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="23"/>
     </row>
     <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="21"/>
+      <c r="A66" s="19"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="23"/>
     </row>
     <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="21"/>
+      <c r="A67" s="19"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="21"/>
+      <c r="A68" s="19"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="23"/>
     </row>
     <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="21"/>
+      <c r="A69" s="19"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="21"/>
+      <c r="A70" s="20"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="23"/>
     </row>
     <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="21"/>
+      <c r="A71" s="19"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="23"/>
     </row>
     <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="21"/>
+      <c r="A72" s="19"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="23"/>
     </row>
     <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="21"/>
+      <c r="A73" s="19"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="23"/>
     </row>
     <row r="74" spans="1:8" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="1" t="s">
         <v>146</v>
       </c>
@@ -20227,7 +20227,7 @@
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:8" ht="80" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="19" t="s">
         <v>103</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -20244,12 +20244,12 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="22"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>97</v>
@@ -20259,7 +20259,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="1" t="s">
         <v>100</v>
       </c>
@@ -20279,7 +20279,7 @@
         <v>173</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>174</v>
@@ -20315,6 +20315,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F57:F73"/>
+    <mergeCell ref="G57:G73"/>
+    <mergeCell ref="H57:H73"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="E57:E73"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A71:A74"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A21"/>
@@ -20325,14 +20333,6 @@
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A22:A32"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="F57:F73"/>
-    <mergeCell ref="G57:G73"/>
-    <mergeCell ref="H57:H73"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="E57:E73"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A71:A74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
